--- a/results/case1/sensitivity_case1.xlsx
+++ b/results/case1/sensitivity_case1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F8152D-022D-4604-83AA-12D25CBDA668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD08157-F683-45C3-9316-BD7CAFC0B6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -200,25 +200,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -232,6 +226,12 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -278,16 +278,16 @@
             <v>-</v>
           </cell>
           <cell r="F2">
-            <v>7.8121720047058599E-2</v>
+            <v>2.4364152021797831E-2</v>
           </cell>
           <cell r="G2">
-            <v>-4.6802872340905327E-2</v>
+            <v>-1.4596610213954709E-2</v>
           </cell>
           <cell r="H2">
-            <v>9.0976874965615434E-2</v>
+            <v>8.6482749777170242E-2</v>
           </cell>
           <cell r="I2">
-            <v>-5.4504420312626228E-2</v>
+            <v>-5.1811981291158583E-2</v>
           </cell>
           <cell r="J2" t="str">
             <v>-</v>
@@ -302,66 +302,66 @@
             <v>-</v>
           </cell>
           <cell r="N2">
-            <v>7.1487121221930586E-2</v>
+            <v>1.7881708115692459E-2</v>
           </cell>
           <cell r="O2">
-            <v>-4.2828071457635702E-2</v>
+            <v>-1.0712965634550131E-2</v>
           </cell>
           <cell r="P2">
-            <v>9.2491149133473602E-2</v>
+            <v>0.11830542696389409</v>
           </cell>
           <cell r="Q2">
-            <v>-5.5411624871418638E-2</v>
+            <v>-7.0877008239092168E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3" t="str">
             <v>-</v>
           </cell>
-          <cell r="C3">
-            <v>-0.16281582830419841</v>
+          <cell r="C3" t="str">
+            <v>-</v>
           </cell>
           <cell r="D3" t="str">
             <v>-</v>
           </cell>
-          <cell r="E3">
-            <v>-0.22728380303961529</v>
+          <cell r="E3" t="str">
+            <v>-</v>
           </cell>
           <cell r="F3" t="str">
             <v>-</v>
           </cell>
-          <cell r="G3">
-            <v>-0.22804674090778371</v>
+          <cell r="G3" t="str">
+            <v>-</v>
           </cell>
           <cell r="H3" t="str">
             <v>-</v>
           </cell>
-          <cell r="I3">
-            <v>-0.26557249150922552</v>
+          <cell r="I3" t="str">
+            <v>-</v>
           </cell>
           <cell r="J3" t="str">
             <v>-</v>
           </cell>
-          <cell r="K3">
-            <v>-0.1168266730077209</v>
+          <cell r="K3" t="str">
+            <v>-</v>
           </cell>
           <cell r="L3" t="str">
             <v>-</v>
           </cell>
-          <cell r="M3">
-            <v>-0.18469149333268689</v>
+          <cell r="M3" t="str">
+            <v>-</v>
           </cell>
           <cell r="N3" t="str">
             <v>-</v>
           </cell>
-          <cell r="O3">
-            <v>-0.17920591565584409</v>
+          <cell r="O3" t="str">
+            <v>-</v>
           </cell>
           <cell r="P3" t="str">
             <v>-</v>
           </cell>
-          <cell r="Q3">
-            <v>-0.2318594005075221</v>
+          <cell r="Q3" t="str">
+            <v>-</v>
           </cell>
         </row>
         <row r="4">
@@ -369,13 +369,13 @@
             <v>-</v>
           </cell>
           <cell r="C4">
-            <v>-7.5948236887277559E-2</v>
+            <v>-0.1126760563380282</v>
           </cell>
           <cell r="D4" t="str">
             <v>-</v>
           </cell>
           <cell r="E4">
-            <v>-4.1160859864565927E-2</v>
+            <v>-4.5938388981297623E-2</v>
           </cell>
           <cell r="F4" t="str">
             <v>-</v>
@@ -393,13 +393,13 @@
             <v>-</v>
           </cell>
           <cell r="K4">
-            <v>-4.4345610419112377E-2</v>
+            <v>-5.9405940594059327E-2</v>
           </cell>
           <cell r="L4" t="str">
             <v>-</v>
           </cell>
           <cell r="M4">
-            <v>-2.2307996557162209E-2</v>
+            <v>-1.330602485647824E-2</v>
           </cell>
           <cell r="N4" t="str">
             <v>-</v>
@@ -419,49 +419,49 @@
             <v>-</v>
           </cell>
           <cell r="C5">
-            <v>-0.238764065191476</v>
+            <v>-0.1126760563380282</v>
           </cell>
           <cell r="D5" t="str">
             <v>-</v>
           </cell>
           <cell r="E5">
-            <v>-0.26844466290418117</v>
+            <v>-4.5938388981297623E-2</v>
           </cell>
           <cell r="F5">
-            <v>7.8121720047058599E-2</v>
+            <v>2.4364152021797831E-2</v>
           </cell>
           <cell r="G5">
-            <v>-0.27484961324868901</v>
+            <v>-1.4596610213954709E-2</v>
           </cell>
           <cell r="H5">
-            <v>9.0976874965615434E-2</v>
+            <v>8.6482749777170242E-2</v>
           </cell>
           <cell r="I5">
-            <v>-0.32007691182185172</v>
+            <v>-5.1811981291158583E-2</v>
           </cell>
           <cell r="J5" t="str">
             <v>-</v>
           </cell>
           <cell r="K5">
-            <v>-0.16117228342683329</v>
+            <v>-5.9405940594059327E-2</v>
           </cell>
           <cell r="L5" t="str">
             <v>-</v>
           </cell>
           <cell r="M5">
-            <v>-0.20699948988984909</v>
+            <v>-1.330602485647824E-2</v>
           </cell>
           <cell r="N5">
-            <v>7.1487121221930586E-2</v>
+            <v>1.7881708115692459E-2</v>
           </cell>
           <cell r="O5">
-            <v>-0.2220339871134798</v>
+            <v>-1.0712965634550131E-2</v>
           </cell>
           <cell r="P5">
-            <v>9.2491149133473602E-2</v>
+            <v>0.11830542696389409</v>
           </cell>
           <cell r="Q5">
-            <v>-0.28727102537894073</v>
+            <v>-7.0877008239092168E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -495,16 +495,16 @@
             <v>-</v>
           </cell>
           <cell r="F2">
-            <v>0.1372428418247609</v>
+            <v>0.14226190438572481</v>
           </cell>
           <cell r="G2">
-            <v>-8.2222449809836173E-2</v>
+            <v>-8.5229379818165224E-2</v>
           </cell>
           <cell r="H2">
-            <v>0.1231775575351543</v>
+            <v>0.1069511457956244</v>
           </cell>
           <cell r="I2">
-            <v>-7.3795911010530721E-2</v>
+            <v>-6.4074636610290767E-2</v>
           </cell>
           <cell r="J2" t="str">
             <v>-</v>
@@ -519,66 +519,66 @@
             <v>-</v>
           </cell>
           <cell r="N2">
-            <v>0.1194203025184912</v>
+            <v>9.2394924456661504E-2</v>
           </cell>
           <cell r="O2">
-            <v>-7.1544932322514618E-2</v>
+            <v>-5.5353976482952733E-2</v>
           </cell>
           <cell r="P2">
-            <v>0.12816247896868049</v>
+            <v>0.12242242166263451</v>
           </cell>
           <cell r="Q2">
-            <v>-7.6782387003919386E-2</v>
+            <v>-7.3343507660728821E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3" t="str">
             <v>-</v>
           </cell>
-          <cell r="C3">
-            <v>-4.8935868434811007E-2</v>
+          <cell r="C3" t="str">
+            <v>-</v>
           </cell>
           <cell r="D3" t="str">
             <v>-</v>
           </cell>
-          <cell r="E3">
-            <v>-9.6175819000391335E-2</v>
+          <cell r="E3" t="str">
+            <v>-</v>
           </cell>
           <cell r="F3" t="str">
             <v>-</v>
           </cell>
-          <cell r="G3">
-            <v>-0.20386811074854569</v>
+          <cell r="G3" t="str">
+            <v>-</v>
           </cell>
           <cell r="H3" t="str">
             <v>-</v>
           </cell>
-          <cell r="I3">
-            <v>-0.18297475924738221</v>
+          <cell r="I3" t="str">
+            <v>-</v>
           </cell>
           <cell r="J3" t="str">
             <v>-</v>
           </cell>
-          <cell r="K3">
-            <v>-3.2648317363928078E-2</v>
+          <cell r="K3" t="str">
+            <v>-</v>
           </cell>
           <cell r="L3" t="str">
             <v>-</v>
           </cell>
-          <cell r="M3">
-            <v>-7.6120660998827569E-2</v>
+          <cell r="M3" t="str">
+            <v>-</v>
           </cell>
           <cell r="N3" t="str">
             <v>-</v>
           </cell>
-          <cell r="O3">
-            <v>-0.16400347049535369</v>
+          <cell r="O3" t="str">
+            <v>-</v>
           </cell>
           <cell r="P3" t="str">
             <v>-</v>
           </cell>
-          <cell r="Q3">
-            <v>-0.17600936268685749</v>
+          <cell r="Q3" t="str">
+            <v>-</v>
           </cell>
         </row>
         <row r="4">
@@ -586,13 +586,13 @@
             <v>-</v>
           </cell>
           <cell r="C4">
-            <v>-9.9583213565277925E-2</v>
+            <v>-0.1126760563380282</v>
           </cell>
           <cell r="D4" t="str">
             <v>-</v>
           </cell>
           <cell r="E4">
-            <v>-6.534357045878067E-2</v>
+            <v>-6.7301872852335007E-2</v>
           </cell>
           <cell r="F4" t="str">
             <v>-</v>
@@ -610,13 +610,13 @@
             <v>-</v>
           </cell>
           <cell r="K4">
-            <v>-5.4084333654849999E-2</v>
+            <v>-5.9405940594059313E-2</v>
           </cell>
           <cell r="L4" t="str">
             <v>-</v>
           </cell>
           <cell r="M4">
-            <v>-3.3219162591998017E-2</v>
+            <v>-2.6589063834684509E-2</v>
           </cell>
           <cell r="N4" t="str">
             <v>-</v>
@@ -636,49 +636,49 @@
             <v>-</v>
           </cell>
           <cell r="C5">
-            <v>-0.14851908200008901</v>
+            <v>-0.1126760563380282</v>
           </cell>
           <cell r="D5" t="str">
             <v>-</v>
           </cell>
           <cell r="E5">
-            <v>-0.16151938945917199</v>
+            <v>-6.7301872852335007E-2</v>
           </cell>
           <cell r="F5">
-            <v>0.1372428418247609</v>
+            <v>0.14226190438572481</v>
           </cell>
           <cell r="G5">
-            <v>-0.28609056055838189</v>
+            <v>-8.5229379818165224E-2</v>
           </cell>
           <cell r="H5">
-            <v>0.1231775575351543</v>
+            <v>0.1069511457956244</v>
           </cell>
           <cell r="I5">
-            <v>-0.25677067025791289</v>
+            <v>-6.4074636610290767E-2</v>
           </cell>
           <cell r="J5" t="str">
             <v>-</v>
           </cell>
           <cell r="K5">
-            <v>-8.6732651018778084E-2</v>
+            <v>-5.9405940594059313E-2</v>
           </cell>
           <cell r="L5" t="str">
             <v>-</v>
           </cell>
           <cell r="M5">
-            <v>-0.1093398235908256</v>
+            <v>-2.6589063834684509E-2</v>
           </cell>
           <cell r="N5">
-            <v>0.1194203025184912</v>
+            <v>9.2394924456661504E-2</v>
           </cell>
           <cell r="O5">
-            <v>-0.23554840281786829</v>
+            <v>-5.5353976482952733E-2</v>
           </cell>
           <cell r="P5">
-            <v>0.12816247896868049</v>
+            <v>0.12242242166263451</v>
           </cell>
           <cell r="Q5">
-            <v>-0.25279174969077689</v>
+            <v>-7.3343507660728821E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -893,7 +893,7 @@
   <dimension ref="B1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:V14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,329 +902,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="13"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="5"/>
+      <c r="V2" s="13"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="str">
+      <c r="C4" s="10" t="str">
         <f>[1]case1_cut_off!B2</f>
         <v>-</v>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="10" t="str">
         <f>[1]case1_cut_off!C2</f>
         <v>-</v>
       </c>
-      <c r="E4" s="12" t="str">
+      <c r="E4" s="10" t="str">
         <f>[1]case1_cut_off!D2</f>
         <v>-</v>
       </c>
-      <c r="F4" s="12" t="str">
+      <c r="F4" s="10" t="str">
         <f>[1]case1_cut_off!E2</f>
         <v>-</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <f>[1]case1_cut_off!F2</f>
-        <v>7.8121720047058599E-2</v>
-      </c>
-      <c r="H4" s="12">
+        <v>2.4364152021797831E-2</v>
+      </c>
+      <c r="H4" s="10">
         <f>[1]case1_cut_off!G2</f>
-        <v>-4.6802872340905327E-2</v>
-      </c>
-      <c r="I4" s="12">
+        <v>-1.4596610213954709E-2</v>
+      </c>
+      <c r="I4" s="10">
         <f>[1]case1_cut_off!H2</f>
-        <v>9.0976874965615434E-2</v>
-      </c>
-      <c r="J4" s="12">
+        <v>8.6482749777170242E-2</v>
+      </c>
+      <c r="J4" s="10">
         <f>[1]case1_cut_off!I2</f>
-        <v>-5.4504420312626228E-2</v>
-      </c>
-      <c r="N4" s="11" t="s">
+        <v>-5.1811981291158583E-2</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="12" t="str">
+      <c r="O4" s="10" t="str">
         <f>[2]case1_consq!B2</f>
         <v>-</v>
       </c>
-      <c r="P4" s="12" t="str">
+      <c r="P4" s="10" t="str">
         <f>[2]case1_consq!C2</f>
         <v>-</v>
       </c>
-      <c r="Q4" s="12" t="str">
+      <c r="Q4" s="10" t="str">
         <f>[2]case1_consq!D2</f>
         <v>-</v>
       </c>
-      <c r="R4" s="12" t="str">
+      <c r="R4" s="10" t="str">
         <f>[2]case1_consq!E2</f>
         <v>-</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="10">
         <f>[2]case1_consq!F2</f>
-        <v>0.1372428418247609</v>
-      </c>
-      <c r="T4" s="12">
+        <v>0.14226190438572481</v>
+      </c>
+      <c r="T4" s="10">
         <f>[2]case1_consq!G2</f>
-        <v>-8.2222449809836173E-2</v>
-      </c>
-      <c r="U4" s="12">
+        <v>-8.5229379818165224E-2</v>
+      </c>
+      <c r="U4" s="10">
         <f>[2]case1_consq!H2</f>
-        <v>0.1231775575351543</v>
-      </c>
-      <c r="V4" s="12">
+        <v>0.1069511457956244</v>
+      </c>
+      <c r="V4" s="10">
         <f>[2]case1_consq!I2</f>
-        <v>-7.3795911010530721E-2</v>
+        <v>-6.4074636610290767E-2</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="11" t="str">
         <f>[1]case1_cut_off!B3</f>
         <v>-</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11" t="str">
         <f>[1]case1_cut_off!C3</f>
-        <v>-0.16281582830419841</v>
-      </c>
-      <c r="E5" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="E5" s="11" t="str">
         <f>[1]case1_cut_off!D3</f>
         <v>-</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11" t="str">
         <f>[1]case1_cut_off!E3</f>
-        <v>-0.22728380303961529</v>
-      </c>
-      <c r="G5" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="G5" s="11" t="str">
         <f>[1]case1_cut_off!F3</f>
         <v>-</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11" t="str">
         <f>[1]case1_cut_off!G3</f>
-        <v>-0.22804674090778371</v>
-      </c>
-      <c r="I5" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="I5" s="11" t="str">
         <f>[1]case1_cut_off!H3</f>
         <v>-</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11" t="str">
         <f>[1]case1_cut_off!I3</f>
-        <v>-0.26557249150922552</v>
-      </c>
-      <c r="N5" s="6" t="s">
+        <v>-</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="13" t="str">
+      <c r="O5" s="11" t="str">
         <f>[2]case1_consq!B3</f>
         <v>-</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11" t="str">
         <f>[2]case1_consq!C3</f>
-        <v>-4.8935868434811007E-2</v>
-      </c>
-      <c r="Q5" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="Q5" s="11" t="str">
         <f>[2]case1_consq!D3</f>
         <v>-</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="11" t="str">
         <f>[2]case1_consq!E3</f>
-        <v>-9.6175819000391335E-2</v>
-      </c>
-      <c r="S5" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="S5" s="11" t="str">
         <f>[2]case1_consq!F3</f>
         <v>-</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="11" t="str">
         <f>[2]case1_consq!G3</f>
-        <v>-0.20386811074854569</v>
-      </c>
-      <c r="U5" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="U5" s="11" t="str">
         <f>[2]case1_consq!H3</f>
         <v>-</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="11" t="str">
         <f>[2]case1_consq!I3</f>
-        <v>-0.18297475924738221</v>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="11" t="str">
         <f>[1]case1_cut_off!B4</f>
         <v>-</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <f>[1]case1_cut_off!C4</f>
-        <v>-7.5948236887277559E-2</v>
-      </c>
-      <c r="E6" s="13" t="str">
+        <v>-0.1126760563380282</v>
+      </c>
+      <c r="E6" s="11" t="str">
         <f>[1]case1_cut_off!D4</f>
         <v>-</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <f>[1]case1_cut_off!E4</f>
-        <v>-4.1160859864565927E-2</v>
-      </c>
-      <c r="G6" s="13" t="str">
+        <v>-4.5938388981297623E-2</v>
+      </c>
+      <c r="G6" s="11" t="str">
         <f>[1]case1_cut_off!F4</f>
         <v>-</v>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="11" t="str">
         <f>[1]case1_cut_off!G4</f>
         <v>-</v>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="11" t="str">
         <f>[1]case1_cut_off!H4</f>
         <v>-</v>
       </c>
-      <c r="J6" s="13" t="str">
+      <c r="J6" s="11" t="str">
         <f>[1]case1_cut_off!I4</f>
         <v>-</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="O6" s="11" t="str">
         <f>[2]case1_consq!B4</f>
         <v>-</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="11">
         <f>[2]case1_consq!C4</f>
-        <v>-9.9583213565277925E-2</v>
-      </c>
-      <c r="Q6" s="13" t="str">
+        <v>-0.1126760563380282</v>
+      </c>
+      <c r="Q6" s="11" t="str">
         <f>[2]case1_consq!D4</f>
         <v>-</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="11">
         <f>[2]case1_consq!E4</f>
-        <v>-6.534357045878067E-2</v>
-      </c>
-      <c r="S6" s="13" t="str">
+        <v>-6.7301872852335007E-2</v>
+      </c>
+      <c r="S6" s="11" t="str">
         <f>[2]case1_consq!F4</f>
         <v>-</v>
       </c>
-      <c r="T6" s="13" t="str">
+      <c r="T6" s="11" t="str">
         <f>[2]case1_consq!G4</f>
         <v>-</v>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U6" s="11" t="str">
         <f>[2]case1_consq!H4</f>
         <v>-</v>
       </c>
-      <c r="V6" s="13" t="str">
+      <c r="V6" s="11" t="str">
         <f>[2]case1_consq!I4</f>
         <v>-</v>
       </c>
@@ -1233,375 +1233,375 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="12" t="str">
         <f>[1]case1_cut_off!B5</f>
         <v>-</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <f>[1]case1_cut_off!C5</f>
-        <v>-0.238764065191476</v>
-      </c>
-      <c r="E7" s="14" t="str">
+        <v>-0.1126760563380282</v>
+      </c>
+      <c r="E7" s="12" t="str">
         <f>[1]case1_cut_off!D5</f>
         <v>-</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <f>[1]case1_cut_off!E5</f>
-        <v>-0.26844466290418117</v>
-      </c>
-      <c r="G7" s="14">
+        <v>-4.5938388981297623E-2</v>
+      </c>
+      <c r="G7" s="12">
         <f>[1]case1_cut_off!F5</f>
-        <v>7.8121720047058599E-2</v>
-      </c>
-      <c r="H7" s="14">
+        <v>2.4364152021797831E-2</v>
+      </c>
+      <c r="H7" s="12">
         <f>[1]case1_cut_off!G5</f>
-        <v>-0.27484961324868901</v>
-      </c>
-      <c r="I7" s="14">
+        <v>-1.4596610213954709E-2</v>
+      </c>
+      <c r="I7" s="12">
         <f>[1]case1_cut_off!H5</f>
-        <v>9.0976874965615434E-2</v>
-      </c>
-      <c r="J7" s="14">
+        <v>8.6482749777170242E-2</v>
+      </c>
+      <c r="J7" s="12">
         <f>[1]case1_cut_off!I5</f>
-        <v>-0.32007691182185172</v>
+        <v>-5.1811981291158583E-2</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="14" t="str">
+      <c r="O7" s="12" t="str">
         <f>[2]case1_consq!B5</f>
         <v>-</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="12">
         <f>[2]case1_consq!C5</f>
-        <v>-0.14851908200008901</v>
-      </c>
-      <c r="Q7" s="14" t="str">
+        <v>-0.1126760563380282</v>
+      </c>
+      <c r="Q7" s="12" t="str">
         <f>[2]case1_consq!D5</f>
         <v>-</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="12">
         <f>[2]case1_consq!E5</f>
-        <v>-0.16151938945917199</v>
-      </c>
-      <c r="S7" s="14">
+        <v>-6.7301872852335007E-2</v>
+      </c>
+      <c r="S7" s="12">
         <f>[2]case1_consq!F5</f>
-        <v>0.1372428418247609</v>
-      </c>
-      <c r="T7" s="14">
+        <v>0.14226190438572481</v>
+      </c>
+      <c r="T7" s="12">
         <f>[2]case1_consq!G5</f>
-        <v>-0.28609056055838189</v>
-      </c>
-      <c r="U7" s="14">
+        <v>-8.5229379818165224E-2</v>
+      </c>
+      <c r="U7" s="12">
         <f>[2]case1_consq!H5</f>
-        <v>0.1231775575351543</v>
-      </c>
-      <c r="V7" s="14">
+        <v>0.1069511457956244</v>
+      </c>
+      <c r="V7" s="12">
         <f>[2]case1_consq!I5</f>
-        <v>-0.25677067025791289</v>
+        <v>-6.4074636610290767E-2</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="13"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5" t="s">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5" t="s">
+      <c r="R9" s="13"/>
+      <c r="S9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5" t="s">
+      <c r="T9" s="13"/>
+      <c r="U9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="5"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="9" t="s">
+      <c r="N10" s="4"/>
+      <c r="O10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="12" t="str">
+      <c r="C11" s="10" t="str">
         <f>[1]case1_cut_off!J2</f>
         <v>-</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="10" t="str">
         <f>[1]case1_cut_off!K2</f>
         <v>-</v>
       </c>
-      <c r="E11" s="12" t="str">
+      <c r="E11" s="10" t="str">
         <f>[1]case1_cut_off!L2</f>
         <v>-</v>
       </c>
-      <c r="F11" s="12" t="str">
+      <c r="F11" s="10" t="str">
         <f>[1]case1_cut_off!M2</f>
         <v>-</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <f>[1]case1_cut_off!N2</f>
-        <v>7.1487121221930586E-2</v>
-      </c>
-      <c r="H11" s="12">
+        <v>1.7881708115692459E-2</v>
+      </c>
+      <c r="H11" s="10">
         <f>[1]case1_cut_off!O2</f>
-        <v>-4.2828071457635702E-2</v>
-      </c>
-      <c r="I11" s="12">
+        <v>-1.0712965634550131E-2</v>
+      </c>
+      <c r="I11" s="10">
         <f>[1]case1_cut_off!P2</f>
-        <v>9.2491149133473602E-2</v>
-      </c>
-      <c r="J11" s="12">
+        <v>0.11830542696389409</v>
+      </c>
+      <c r="J11" s="10">
         <f>[1]case1_cut_off!Q2</f>
-        <v>-5.5411624871418638E-2</v>
-      </c>
-      <c r="N11" s="11" t="s">
+        <v>-7.0877008239092168E-2</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="12" t="str">
+      <c r="O11" s="10" t="str">
         <f>[2]case1_consq!J2</f>
         <v>-</v>
       </c>
-      <c r="P11" s="12" t="str">
+      <c r="P11" s="10" t="str">
         <f>[2]case1_consq!K2</f>
         <v>-</v>
       </c>
-      <c r="Q11" s="12" t="str">
+      <c r="Q11" s="10" t="str">
         <f>[2]case1_consq!L2</f>
         <v>-</v>
       </c>
-      <c r="R11" s="12" t="str">
+      <c r="R11" s="10" t="str">
         <f>[2]case1_consq!M2</f>
         <v>-</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="10">
         <f>[2]case1_consq!N2</f>
-        <v>0.1194203025184912</v>
-      </c>
-      <c r="T11" s="12">
+        <v>9.2394924456661504E-2</v>
+      </c>
+      <c r="T11" s="10">
         <f>[2]case1_consq!O2</f>
-        <v>-7.1544932322514618E-2</v>
-      </c>
-      <c r="U11" s="12">
+        <v>-5.5353976482952733E-2</v>
+      </c>
+      <c r="U11" s="10">
         <f>[2]case1_consq!P2</f>
-        <v>0.12816247896868049</v>
-      </c>
-      <c r="V11" s="12">
+        <v>0.12242242166263451</v>
+      </c>
+      <c r="V11" s="10">
         <f>[2]case1_consq!Q2</f>
-        <v>-7.6782387003919386E-2</v>
+        <v>-7.3343507660728821E-2</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="str">
+      <c r="C12" s="11" t="str">
         <f>[1]case1_cut_off!J3</f>
         <v>-</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11" t="str">
         <f>[1]case1_cut_off!K3</f>
-        <v>-0.1168266730077209</v>
-      </c>
-      <c r="E12" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="E12" s="11" t="str">
         <f>[1]case1_cut_off!L3</f>
         <v>-</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11" t="str">
         <f>[1]case1_cut_off!M3</f>
-        <v>-0.18469149333268689</v>
-      </c>
-      <c r="G12" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="G12" s="11" t="str">
         <f>[1]case1_cut_off!N3</f>
         <v>-</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11" t="str">
         <f>[1]case1_cut_off!O3</f>
-        <v>-0.17920591565584409</v>
-      </c>
-      <c r="I12" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="I12" s="11" t="str">
         <f>[1]case1_cut_off!P3</f>
         <v>-</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11" t="str">
         <f>[1]case1_cut_off!Q3</f>
-        <v>-0.2318594005075221</v>
-      </c>
-      <c r="N12" s="6" t="s">
+        <v>-</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="13" t="str">
+      <c r="O12" s="11" t="str">
         <f>[2]case1_consq!J3</f>
         <v>-</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11" t="str">
         <f>[2]case1_consq!K3</f>
-        <v>-3.2648317363928078E-2</v>
-      </c>
-      <c r="Q12" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="Q12" s="11" t="str">
         <f>[2]case1_consq!L3</f>
         <v>-</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="11" t="str">
         <f>[2]case1_consq!M3</f>
-        <v>-7.6120660998827569E-2</v>
-      </c>
-      <c r="S12" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="S12" s="11" t="str">
         <f>[2]case1_consq!N3</f>
         <v>-</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="11" t="str">
         <f>[2]case1_consq!O3</f>
-        <v>-0.16400347049535369</v>
-      </c>
-      <c r="U12" s="13" t="str">
+        <v>-</v>
+      </c>
+      <c r="U12" s="11" t="str">
         <f>[2]case1_consq!P3</f>
         <v>-</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="11" t="str">
         <f>[2]case1_consq!Q3</f>
-        <v>-0.17600936268685749</v>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="13" t="str">
+      <c r="C13" s="11" t="str">
         <f>[1]case1_cut_off!J4</f>
         <v>-</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <f>[1]case1_cut_off!K4</f>
-        <v>-4.4345610419112377E-2</v>
-      </c>
-      <c r="E13" s="13" t="str">
+        <v>-5.9405940594059327E-2</v>
+      </c>
+      <c r="E13" s="11" t="str">
         <f>[1]case1_cut_off!L4</f>
         <v>-</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <f>[1]case1_cut_off!M4</f>
-        <v>-2.2307996557162209E-2</v>
-      </c>
-      <c r="G13" s="13" t="str">
+        <v>-1.330602485647824E-2</v>
+      </c>
+      <c r="G13" s="11" t="str">
         <f>[1]case1_cut_off!N4</f>
         <v>-</v>
       </c>
-      <c r="H13" s="13" t="str">
+      <c r="H13" s="11" t="str">
         <f>[1]case1_cut_off!O4</f>
         <v>-</v>
       </c>
-      <c r="I13" s="13" t="str">
+      <c r="I13" s="11" t="str">
         <f>[1]case1_cut_off!P4</f>
         <v>-</v>
       </c>
-      <c r="J13" s="13" t="str">
+      <c r="J13" s="11" t="str">
         <f>[1]case1_cut_off!Q4</f>
         <v>-</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="13" t="str">
+      <c r="O13" s="11" t="str">
         <f>[2]case1_consq!J4</f>
         <v>-</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="11">
         <f>[2]case1_consq!K4</f>
-        <v>-5.4084333654849999E-2</v>
-      </c>
-      <c r="Q13" s="13" t="str">
+        <v>-5.9405940594059313E-2</v>
+      </c>
+      <c r="Q13" s="11" t="str">
         <f>[2]case1_consq!L4</f>
         <v>-</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="11">
         <f>[2]case1_consq!M4</f>
-        <v>-3.3219162591998017E-2</v>
-      </c>
-      <c r="S13" s="13" t="str">
+        <v>-2.6589063834684509E-2</v>
+      </c>
+      <c r="S13" s="11" t="str">
         <f>[2]case1_consq!N4</f>
         <v>-</v>
       </c>
-      <c r="T13" s="13" t="str">
+      <c r="T13" s="11" t="str">
         <f>[2]case1_consq!O4</f>
         <v>-</v>
       </c>
-      <c r="U13" s="13" t="str">
+      <c r="U13" s="11" t="str">
         <f>[2]case1_consq!P4</f>
         <v>-</v>
       </c>
-      <c r="V13" s="13" t="str">
+      <c r="V13" s="11" t="str">
         <f>[2]case1_consq!Q4</f>
         <v>-</v>
       </c>
@@ -1610,76 +1610,82 @@
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="14" t="str">
+      <c r="C14" s="12" t="str">
         <f>[1]case1_cut_off!J5</f>
         <v>-</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <f>[1]case1_cut_off!K5</f>
-        <v>-0.16117228342683329</v>
-      </c>
-      <c r="E14" s="14" t="str">
+        <v>-5.9405940594059327E-2</v>
+      </c>
+      <c r="E14" s="12" t="str">
         <f>[1]case1_cut_off!L5</f>
         <v>-</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <f>[1]case1_cut_off!M5</f>
-        <v>-0.20699948988984909</v>
-      </c>
-      <c r="G14" s="14">
+        <v>-1.330602485647824E-2</v>
+      </c>
+      <c r="G14" s="12">
         <f>[1]case1_cut_off!N5</f>
-        <v>7.1487121221930586E-2</v>
-      </c>
-      <c r="H14" s="14">
+        <v>1.7881708115692459E-2</v>
+      </c>
+      <c r="H14" s="12">
         <f>[1]case1_cut_off!O5</f>
-        <v>-0.2220339871134798</v>
-      </c>
-      <c r="I14" s="14">
+        <v>-1.0712965634550131E-2</v>
+      </c>
+      <c r="I14" s="12">
         <f>[1]case1_cut_off!P5</f>
-        <v>9.2491149133473602E-2</v>
-      </c>
-      <c r="J14" s="14">
+        <v>0.11830542696389409</v>
+      </c>
+      <c r="J14" s="12">
         <f>[1]case1_cut_off!Q5</f>
-        <v>-0.28727102537894073</v>
+        <v>-7.0877008239092168E-2</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="14" t="str">
+      <c r="O14" s="12" t="str">
         <f>[2]case1_consq!J5</f>
         <v>-</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="12">
         <f>[2]case1_consq!K5</f>
-        <v>-8.6732651018778084E-2</v>
-      </c>
-      <c r="Q14" s="14" t="str">
+        <v>-5.9405940594059313E-2</v>
+      </c>
+      <c r="Q14" s="12" t="str">
         <f>[2]case1_consq!L5</f>
         <v>-</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="12">
         <f>[2]case1_consq!M5</f>
-        <v>-0.1093398235908256</v>
-      </c>
-      <c r="S14" s="14">
+        <v>-2.6589063834684509E-2</v>
+      </c>
+      <c r="S14" s="12">
         <f>[2]case1_consq!N5</f>
-        <v>0.1194203025184912</v>
-      </c>
-      <c r="T14" s="14">
+        <v>9.2394924456661504E-2</v>
+      </c>
+      <c r="T14" s="12">
         <f>[2]case1_consq!O5</f>
-        <v>-0.23554840281786829</v>
-      </c>
-      <c r="U14" s="14">
+        <v>-5.5353976482952733E-2</v>
+      </c>
+      <c r="U14" s="12">
         <f>[2]case1_consq!P5</f>
-        <v>0.12816247896868049</v>
-      </c>
-      <c r="V14" s="14">
+        <v>0.12242242166263451</v>
+      </c>
+      <c r="V14" s="12">
         <f>[2]case1_consq!Q5</f>
-        <v>-0.25279174969077689</v>
+        <v>-7.3343507660728821E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
@@ -1692,12 +1698,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:J7 O4:V7 O11:V14 C11:J14">
     <cfRule type="colorScale" priority="1">
@@ -1716,21 +1716,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>